--- a/clo-angular/src/assets/albums/fullsize/album_01/Volume1.xlsx
+++ b/clo-angular/src/assets/albums/fullsize/album_01/Volume1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\CLO Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caleb/Work/clo-v3/clo-angular/src/assets/albums/fullsize/album_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2985595-51CC-4129-8EFD-AE42D0492AC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C814792-3D6A-E94A-BA31-19FD59C3A056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12458" windowHeight="9173" xr2:uid="{517CE185-2A2D-4C94-9073-36436EDE3B96}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{517CE185-2A2D-4C94-9073-36436EDE3B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="140">
   <si>
     <t>title_of_work</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Thomas Carlyle Photograph Albums, Volume 1</t>
   </si>
   <si>
-    <t>Front cover</t>
-  </si>
-  <si>
-    <t>Album front cover, stamped in gold, reading: "Tales of the Sun. / 1855. / Edited by R.T."</t>
-  </si>
-  <si>
     <t>Jewsbury, Geraldine Endsor, 1812-1880, compiler.</t>
   </si>
   <si>
@@ -333,9 +327,6 @@
   </si>
   <si>
     <t>Image of a panel screen with approximately 93 images affixed, in front of a bookshelf in Thomas Carlyle's attic study, dated 29 July 1857 by Robert Scott Tait, photographer.</t>
-  </si>
-  <si>
-    <t>Thomas Carlyle Photograph Albums, Volume 1, Front cover</t>
   </si>
   <si>
     <t>Thomas Carlyle Photograph Albums, Volume 1, Front flyleaf recto)</t>
@@ -826,20 +817,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54185113-5CC3-40D6-89C1-DCDB5FD77B4C}">
   <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.46484375" customWidth="1"/>
-    <col min="2" max="2" width="2.265625" customWidth="1"/>
-    <col min="3" max="3" width="46.796875" customWidth="1"/>
-    <col min="4" max="4" width="75.59765625" customWidth="1"/>
-    <col min="11" max="11" width="19.796875" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="2.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
+    <col min="4" max="4" width="66" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,90 +856,90 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
+        <v>132</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
       </c>
       <c r="Q2" s="1">
         <v>2018</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>14</v>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -956,320 +947,332 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="L3">
+        <v>1855</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="1">
         <v>2018</v>
       </c>
       <c r="R3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R4" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>103</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4">
-        <v>1855</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R4" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>104</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O6" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R7" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="I8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L8" t="s">
-        <v>35</v>
-      </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="1">
         <v>2018</v>
       </c>
       <c r="R8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1277,55 +1280,55 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="1">
         <v>2018</v>
       </c>
       <c r="R9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1333,223 +1336,223 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q10" s="1">
         <v>2018</v>
       </c>
       <c r="R10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>110</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L11" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O11" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S11" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R12" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T12" t="s">
-        <v>20</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="1">
         <v>2018</v>
       </c>
       <c r="R13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1557,55 +1560,55 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="1">
         <v>2018</v>
       </c>
       <c r="R14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1613,111 +1616,111 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
         <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="1">
         <v>2018</v>
       </c>
       <c r="R15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" t="s">
-        <v>56</v>
-      </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="1">
         <v>2018</v>
       </c>
       <c r="R16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1725,55 +1728,55 @@
         <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="1">
         <v>2018</v>
       </c>
       <c r="R17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1781,226 +1784,226 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L18" t="s">
-        <v>56</v>
+        <v>128</v>
+      </c>
+      <c r="L18">
+        <v>1855</v>
       </c>
       <c r="M18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="1">
         <v>2018</v>
       </c>
       <c r="R18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R19" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
+      </c>
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
         <v>118</v>
       </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19">
-        <v>1855</v>
-      </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R19" t="s">
-        <v>13</v>
-      </c>
-      <c r="S19" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" t="s">
-        <v>20</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S20" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
+      <c r="I21" t="s">
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
       </c>
       <c r="M21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="1">
         <v>2018</v>
       </c>
       <c r="R21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2008,388 +2011,391 @@
         <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
         <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
         <v>2018</v>
       </c>
       <c r="R22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T23" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O24" t="s">
+        <v>9</v>
+      </c>
+      <c r="P24" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
         <v>122</v>
       </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L23" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" t="s">
-        <v>19</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O23" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R23" t="s">
-        <v>13</v>
-      </c>
-      <c r="S23" t="s">
-        <v>14</v>
-      </c>
-      <c r="T23" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" t="s">
+        <v>85</v>
+      </c>
+      <c r="M25" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R25" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" t="s">
+        <v>12</v>
+      </c>
+      <c r="T25" t="s">
+        <v>18</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>123</v>
       </c>
-      <c r="D24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L24" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O24" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R24" t="s">
-        <v>13</v>
-      </c>
-      <c r="S24" t="s">
-        <v>14</v>
-      </c>
-      <c r="T24" t="s">
-        <v>20</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26">
+        <v>1855</v>
+      </c>
+      <c r="M26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
         <v>124</v>
       </c>
-      <c r="D25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" t="s">
-        <v>84</v>
-      </c>
-      <c r="M25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O25" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R25" t="s">
-        <v>13</v>
-      </c>
-      <c r="S25" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" t="s">
-        <v>20</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2018</v>
+      </c>
+      <c r="R27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" t="s">
+        <v>18</v>
+      </c>
+      <c r="U27" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
         <v>125</v>
       </c>
-      <c r="D26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O26" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R26" t="s">
-        <v>13</v>
-      </c>
-      <c r="S26" t="s">
-        <v>14</v>
-      </c>
-      <c r="T26" t="s">
-        <v>20</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" t="s">
-        <v>90</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L27">
-        <v>1855</v>
-      </c>
-      <c r="M27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O27" t="s">
-        <v>11</v>
-      </c>
-      <c r="P27" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R27" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" t="s">
-        <v>20</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>127</v>
-      </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="M28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="1">
         <v>2018</v>
       </c>
       <c r="R28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2397,58 +2403,58 @@
         <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D29" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" t="s">
         <v>96</v>
       </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" t="s">
-        <v>42</v>
-      </c>
       <c r="M29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="1">
         <v>2018</v>
       </c>
       <c r="R29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2456,126 +2462,67 @@
         <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" t="s">
         <v>96</v>
       </c>
-      <c r="E30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" t="s">
-        <v>98</v>
-      </c>
       <c r="M30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="1">
         <v>2018</v>
       </c>
       <c r="R30" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L31" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" t="s">
-        <v>19</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>2018</v>
-      </c>
-      <c r="R31" t="s">
-        <v>13</v>
-      </c>
-      <c r="S31" t="s">
-        <v>14</v>
-      </c>
-      <c r="T31" t="s">
-        <v>20</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K32" s="3"/>
       <c r="N32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="11:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K33" s="3"/>
       <c r="N33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="11:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="11:21" x14ac:dyDescent="0.2">
       <c r="K34" s="3"/>
       <c r="N34" s="1"/>
       <c r="Q34" s="1"/>

--- a/clo-angular/src/assets/albums/fullsize/album_01/Volume1.xlsx
+++ b/clo-angular/src/assets/albums/fullsize/album_01/Volume1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stella/clo3/clo-angular/src/assets/albums/fullsize/album_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C993E-7129-6547-9BEC-235EB4DABFE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9148E8B1-45B5-1945-96B0-2788B6438973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
